--- a/PTS2022-data/2019_County-level_ASRH.xlsx
+++ b/PTS2022-data/2019_County-level_ASRH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Planning\Health Info Systems and Reporting\POP\Pop2019\ASRH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yaleedu-my.sharepoint.com/personal/mary_ryan_yale_edu/Documents/Desktop/personal-code/pathwaysToScience-2022/PTS2022-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00091BFC-A111-4893-84B5-E667EBCB59B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{00091BFC-A111-4893-84B5-E667EBCB59B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{389B13C8-D81F-4364-88C5-0205CD128D8E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019_County-level_ASRH" sheetId="1" r:id="rId1"/>
@@ -1353,7 +1353,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1503,6 +1503,46 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1523,10 +1563,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="3" fontId="20" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1535,41 +1571,8 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1892,10 +1895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U182"/>
+  <dimension ref="A1:V182"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:U1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="V139" sqref="V139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1912,32 +1915,32 @@
     <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="41" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:22" s="41" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-    </row>
-    <row r="2" spans="1:21" s="42" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+    </row>
+    <row r="2" spans="1:22" s="42" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
@@ -1960,77 +1963,77 @@
       <c r="T2" s="4"/>
       <c r="U2" s="3"/>
     </row>
-    <row r="3" spans="1:21" s="43" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48" t="s">
+    <row r="3" spans="1:22" s="43" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="48" t="s">
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
       <c r="U3" s="5"/>
     </row>
-    <row r="4" spans="1:21" s="43" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="55" t="s">
+    <row r="4" spans="1:22" s="43" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51" t="s">
+      <c r="D4" s="53"/>
+      <c r="E4" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51" t="s">
+      <c r="F4" s="53"/>
+      <c r="G4" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51" t="s">
+      <c r="H4" s="53"/>
+      <c r="I4" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="51"/>
-      <c r="K4" s="56" t="s">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="55" t="s">
+      <c r="L4" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51" t="s">
+      <c r="M4" s="53"/>
+      <c r="N4" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51" t="s">
+      <c r="O4" s="53"/>
+      <c r="P4" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51" t="s">
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="51"/>
-      <c r="T4" s="52" t="s">
+      <c r="S4" s="53"/>
+      <c r="T4" s="61" t="s">
         <v>35</v>
       </c>
       <c r="U4" s="6"/>
     </row>
-    <row r="5" spans="1:21" s="43" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" s="43" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>36</v>
       </c>
@@ -2061,7 +2064,7 @@
       <c r="J5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="57"/>
+      <c r="K5" s="55"/>
       <c r="L5" s="11" t="s">
         <v>38</v>
       </c>
@@ -2086,12 +2089,12 @@
       <c r="S5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="T5" s="53"/>
+      <c r="T5" s="62"/>
       <c r="U5" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
         <v>1</v>
       </c>
@@ -2155,8 +2158,12 @@
       <c r="U6" s="19">
         <v>9651</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V6" s="63">
+        <f>SUM(U6:U24)</f>
+        <v>943332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="45"/>
       <c r="B7" s="20" t="s">
         <v>3</v>
@@ -2219,7 +2226,7 @@
         <v>41548</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
       <c r="B8" s="20" t="s">
         <v>4</v>
@@ -2282,7 +2289,7 @@
         <v>55876</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="45"/>
       <c r="B9" s="20" t="s">
         <v>5</v>
@@ -2345,7 +2352,7 @@
         <v>63240</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="45"/>
       <c r="B10" s="20" t="s">
         <v>6</v>
@@ -2408,7 +2415,7 @@
         <v>65702</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="45"/>
       <c r="B11" s="20" t="s">
         <v>7</v>
@@ -2471,7 +2478,7 @@
         <v>59529</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="45"/>
       <c r="B12" s="20" t="s">
         <v>8</v>
@@ -2534,7 +2541,7 @@
         <v>53799</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="45"/>
       <c r="B13" s="20" t="s">
         <v>9</v>
@@ -2597,7 +2604,7 @@
         <v>54671</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="45"/>
       <c r="B14" s="20" t="s">
         <v>10</v>
@@ -2660,7 +2667,7 @@
         <v>58414</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
       <c r="B15" s="20" t="s">
         <v>11</v>
@@ -2723,7 +2730,7 @@
         <v>58872</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="45"/>
       <c r="B16" s="20" t="s">
         <v>12</v>
@@ -2786,7 +2793,7 @@
         <v>64348</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="20" t="s">
         <v>13</v>
@@ -2849,7 +2856,7 @@
         <v>69899</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="20" t="s">
         <v>14</v>
@@ -2912,7 +2919,7 @@
         <v>71355</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
       <c r="B19" s="20" t="s">
         <v>15</v>
@@ -2975,7 +2982,7 @@
         <v>62477</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
       <c r="B20" s="20" t="s">
         <v>16</v>
@@ -3038,7 +3045,7 @@
         <v>47199</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="B21" s="20" t="s">
         <v>17</v>
@@ -3101,7 +3108,7 @@
         <v>37228</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="20" t="s">
         <v>18</v>
@@ -3164,7 +3171,7 @@
         <v>27288</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="20" t="s">
         <v>19</v>
@@ -3227,8 +3234,8 @@
         <v>18503</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="56"/>
       <c r="B24" s="20" t="s">
         <v>20</v>
       </c>
@@ -3290,7 +3297,7 @@
         <v>23733</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="s">
         <v>21</v>
       </c>
@@ -3354,8 +3361,12 @@
       <c r="U25" s="26">
         <v>9149</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V25" s="63">
+        <f>SUM(U25:U43)</f>
+        <v>891720</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="45"/>
       <c r="B26" s="20" t="s">
         <v>3</v>
@@ -3418,7 +3429,7 @@
         <v>38586</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="45"/>
       <c r="B27" s="20" t="s">
         <v>4</v>
@@ -3481,7 +3492,7 @@
         <v>50564</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="45"/>
       <c r="B28" s="20" t="s">
         <v>5</v>
@@ -3544,7 +3555,7 @@
         <v>53906</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
       <c r="B29" s="20" t="s">
         <v>6</v>
@@ -3607,7 +3618,7 @@
         <v>56962</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="45"/>
       <c r="B30" s="20" t="s">
         <v>7</v>
@@ -3670,7 +3681,7 @@
         <v>56626</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="45"/>
       <c r="B31" s="20" t="s">
         <v>8</v>
@@ -3733,7 +3744,7 @@
         <v>59890</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="45"/>
       <c r="B32" s="20" t="s">
         <v>9</v>
@@ -3796,7 +3807,7 @@
         <v>59408</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
       <c r="B33" s="20" t="s">
         <v>10</v>
@@ -3859,7 +3870,7 @@
         <v>58411</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="45"/>
       <c r="B34" s="20" t="s">
         <v>11</v>
@@ -3922,7 +3933,7 @@
         <v>53230</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="45"/>
       <c r="B35" s="20" t="s">
         <v>12</v>
@@ -3985,7 +3996,7 @@
         <v>55391</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="45"/>
       <c r="B36" s="20" t="s">
         <v>13</v>
@@ -4048,7 +4059,7 @@
         <v>60447</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
       <c r="B37" s="20" t="s">
         <v>14</v>
@@ -4111,7 +4122,7 @@
         <v>64381</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="45"/>
       <c r="B38" s="20" t="s">
         <v>15</v>
@@ -4174,7 +4185,7 @@
         <v>59267</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="45"/>
       <c r="B39" s="20" t="s">
         <v>16</v>
@@ -4237,7 +4248,7 @@
         <v>47288</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="45"/>
       <c r="B40" s="20" t="s">
         <v>17</v>
@@ -4300,7 +4311,7 @@
         <v>38735</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="45"/>
       <c r="B41" s="20" t="s">
         <v>18</v>
@@ -4363,7 +4374,7 @@
         <v>27401</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="45"/>
       <c r="B42" s="20" t="s">
         <v>19</v>
@@ -4426,8 +4437,8 @@
         <v>18729</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="46"/>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43" s="56"/>
       <c r="B43" s="20" t="s">
         <v>20</v>
       </c>
@@ -4489,7 +4500,7 @@
         <v>23349</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="s">
         <v>22</v>
       </c>
@@ -4553,8 +4564,12 @@
       <c r="U44" s="26">
         <v>1386</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V44" s="63">
+        <f>SUM(U44:U62)</f>
+        <v>180333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="45"/>
       <c r="B45" s="20" t="s">
         <v>3</v>
@@ -4617,7 +4632,7 @@
         <v>6061</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="45"/>
       <c r="B46" s="20" t="s">
         <v>4</v>
@@ -4680,7 +4695,7 @@
         <v>8448</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="45"/>
       <c r="B47" s="20" t="s">
         <v>5</v>
@@ -4743,7 +4758,7 @@
         <v>9820</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="45"/>
       <c r="B48" s="20" t="s">
         <v>6</v>
@@ -4806,7 +4821,7 @@
         <v>10422</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="45"/>
       <c r="B49" s="20" t="s">
         <v>7</v>
@@ -4869,7 +4884,7 @@
         <v>9498</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="45"/>
       <c r="B50" s="20" t="s">
         <v>8</v>
@@ -4932,7 +4947,7 @@
         <v>9833</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="45"/>
       <c r="B51" s="20" t="s">
         <v>9</v>
@@ -4995,7 +5010,7 @@
         <v>9515</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="45"/>
       <c r="B52" s="20" t="s">
         <v>10</v>
@@ -5058,7 +5073,7 @@
         <v>9759</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="45"/>
       <c r="B53" s="20" t="s">
         <v>11</v>
@@ -5121,7 +5136,7 @@
         <v>9346</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="45"/>
       <c r="B54" s="20" t="s">
         <v>12</v>
@@ -5184,7 +5199,7 @@
         <v>11346</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="45"/>
       <c r="B55" s="20" t="s">
         <v>13</v>
@@ -5247,7 +5262,7 @@
         <v>14046</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="45"/>
       <c r="B56" s="20" t="s">
         <v>14</v>
@@ -5310,7 +5325,7 @@
         <v>15797</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="45"/>
       <c r="B57" s="20" t="s">
         <v>15</v>
@@ -5373,7 +5388,7 @@
         <v>15402</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="45"/>
       <c r="B58" s="20" t="s">
         <v>16</v>
@@ -5436,7 +5451,7 @@
         <v>12785</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="45"/>
       <c r="B59" s="20" t="s">
         <v>17</v>
@@ -5499,7 +5514,7 @@
         <v>10257</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="45"/>
       <c r="B60" s="20" t="s">
         <v>18</v>
@@ -5562,7 +5577,7 @@
         <v>7233</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="45"/>
       <c r="B61" s="20" t="s">
         <v>19</v>
@@ -5625,8 +5640,8 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A62" s="46"/>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A62" s="56"/>
       <c r="B62" s="20" t="s">
         <v>20</v>
       </c>
@@ -5688,7 +5703,7 @@
         <v>4939</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="44" t="s">
         <v>23</v>
       </c>
@@ -5752,8 +5767,12 @@
       <c r="U63" s="26">
         <v>1242</v>
       </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V63" s="63">
+        <f>SUM(U63:U81)</f>
+        <v>162436</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="45"/>
       <c r="B64" s="20" t="s">
         <v>3</v>
@@ -6824,8 +6843,8 @@
         <v>3795</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A81" s="46"/>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A81" s="56"/>
       <c r="B81" s="20" t="s">
         <v>20</v>
       </c>
@@ -6887,7 +6906,7 @@
         <v>4909</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" s="44" t="s">
         <v>24</v>
       </c>
@@ -6951,8 +6970,12 @@
       <c r="U82" s="26">
         <v>8509</v>
       </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V82" s="63">
+        <f>SUM(U82:U100)</f>
+        <v>854757</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" s="45"/>
       <c r="B83" s="20" t="s">
         <v>3</v>
@@ -7015,7 +7038,7 @@
         <v>35286</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" s="45"/>
       <c r="B84" s="20" t="s">
         <v>4</v>
@@ -7078,7 +7101,7 @@
         <v>45864</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" s="45"/>
       <c r="B85" s="20" t="s">
         <v>5</v>
@@ -7141,7 +7164,7 @@
         <v>49751</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" s="45"/>
       <c r="B86" s="20" t="s">
         <v>6</v>
@@ -7204,7 +7227,7 @@
         <v>57272</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" s="45"/>
       <c r="B87" s="20" t="s">
         <v>7</v>
@@ -7267,7 +7290,7 @@
         <v>58082</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" s="45"/>
       <c r="B88" s="20" t="s">
         <v>8</v>
@@ -7330,7 +7353,7 @@
         <v>58396</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" s="45"/>
       <c r="B89" s="20" t="s">
         <v>9</v>
@@ -7393,7 +7416,7 @@
         <v>56666</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" s="45"/>
       <c r="B90" s="20" t="s">
         <v>10</v>
@@ -7456,7 +7479,7 @@
         <v>52727</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" s="45"/>
       <c r="B91" s="20" t="s">
         <v>11</v>
@@ -7519,7 +7542,7 @@
         <v>48855</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" s="45"/>
       <c r="B92" s="20" t="s">
         <v>12</v>
@@ -7582,7 +7605,7 @@
         <v>52494</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" s="45"/>
       <c r="B93" s="20" t="s">
         <v>13</v>
@@ -7645,7 +7668,7 @@
         <v>58404</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" s="45"/>
       <c r="B94" s="20" t="s">
         <v>14</v>
@@ -7708,7 +7731,7 @@
         <v>62136</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" s="45"/>
       <c r="B95" s="20" t="s">
         <v>15</v>
@@ -7771,7 +7794,7 @@
         <v>57692</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" s="45"/>
       <c r="B96" s="20" t="s">
         <v>16</v>
@@ -7834,7 +7857,7 @@
         <v>46833</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97" s="45"/>
       <c r="B97" s="20" t="s">
         <v>17</v>
@@ -7897,7 +7920,7 @@
         <v>38726</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98" s="45"/>
       <c r="B98" s="20" t="s">
         <v>18</v>
@@ -7960,7 +7983,7 @@
         <v>26989</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99" s="45"/>
       <c r="B99" s="20" t="s">
         <v>19</v>
@@ -8023,8 +8046,8 @@
         <v>17675</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A100" s="46"/>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A100" s="56"/>
       <c r="B100" s="20" t="s">
         <v>20</v>
       </c>
@@ -8086,7 +8109,7 @@
         <v>22400</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101" s="44" t="s">
         <v>25</v>
       </c>
@@ -8150,8 +8173,12 @@
       <c r="U101" s="26">
         <v>2487</v>
       </c>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V101" s="63">
+        <f>SUM(U101:U119)</f>
+        <v>265206</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102" s="45"/>
       <c r="B102" s="20" t="s">
         <v>3</v>
@@ -8214,7 +8241,7 @@
         <v>10482</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103" s="45"/>
       <c r="B103" s="20" t="s">
         <v>4</v>
@@ -8277,7 +8304,7 @@
         <v>13715</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104" s="45"/>
       <c r="B104" s="20" t="s">
         <v>5</v>
@@ -8340,7 +8367,7 @@
         <v>14740</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A105" s="45"/>
       <c r="B105" s="20" t="s">
         <v>6</v>
@@ -8403,7 +8430,7 @@
         <v>16527</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A106" s="45"/>
       <c r="B106" s="20" t="s">
         <v>7</v>
@@ -8466,7 +8493,7 @@
         <v>19258</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A107" s="45"/>
       <c r="B107" s="20" t="s">
         <v>8</v>
@@ -8529,7 +8556,7 @@
         <v>18053</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A108" s="45"/>
       <c r="B108" s="20" t="s">
         <v>9</v>
@@ -8592,7 +8619,7 @@
         <v>16915</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A109" s="45"/>
       <c r="B109" s="20" t="s">
         <v>10</v>
@@ -8655,7 +8682,7 @@
         <v>15621</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A110" s="45"/>
       <c r="B110" s="20" t="s">
         <v>11</v>
@@ -8718,7 +8745,7 @@
         <v>14222</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A111" s="45"/>
       <c r="B111" s="20" t="s">
         <v>12</v>
@@ -8781,7 +8808,7 @@
         <v>15613</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A112" s="45"/>
       <c r="B112" s="20" t="s">
         <v>13</v>
@@ -8844,7 +8871,7 @@
         <v>18211</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A113" s="45"/>
       <c r="B113" s="20" t="s">
         <v>14</v>
@@ -8907,7 +8934,7 @@
         <v>20367</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A114" s="45"/>
       <c r="B114" s="20" t="s">
         <v>15</v>
@@ -8970,7 +8997,7 @@
         <v>19160</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A115" s="45"/>
       <c r="B115" s="20" t="s">
         <v>16</v>
@@ -9033,7 +9060,7 @@
         <v>15732</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A116" s="45"/>
       <c r="B116" s="20" t="s">
         <v>17</v>
@@ -9096,7 +9123,7 @@
         <v>12786</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A117" s="45"/>
       <c r="B117" s="20" t="s">
         <v>18</v>
@@ -9159,7 +9186,7 @@
         <v>9137</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A118" s="45"/>
       <c r="B118" s="20" t="s">
         <v>19</v>
@@ -9222,8 +9249,8 @@
         <v>5695</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A119" s="46"/>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A119" s="56"/>
       <c r="B119" s="20" t="s">
         <v>20</v>
       </c>
@@ -9285,7 +9312,7 @@
         <v>6485</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120" s="44" t="s">
         <v>26</v>
       </c>
@@ -9349,8 +9376,12 @@
       <c r="U120" s="26">
         <v>1138</v>
       </c>
-    </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V120" s="63">
+        <f>SUM(U120:U138)</f>
+        <v>150721</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A121" s="45"/>
       <c r="B121" s="20" t="s">
         <v>3</v>
@@ -9413,7 +9444,7 @@
         <v>5022</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A122" s="45"/>
       <c r="B122" s="20" t="s">
         <v>4</v>
@@ -9476,7 +9507,7 @@
         <v>6806</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A123" s="45"/>
       <c r="B123" s="20" t="s">
         <v>5</v>
@@ -9539,7 +9570,7 @@
         <v>7719</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A124" s="45"/>
       <c r="B124" s="20" t="s">
         <v>6</v>
@@ -9602,7 +9633,7 @@
         <v>14011</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A125" s="45"/>
       <c r="B125" s="20" t="s">
         <v>7</v>
@@ -9665,7 +9696,7 @@
         <v>19335</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A126" s="45"/>
       <c r="B126" s="20" t="s">
         <v>8</v>
@@ -9728,7 +9759,7 @@
         <v>8663</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A127" s="45"/>
       <c r="B127" s="20" t="s">
         <v>9</v>
@@ -9791,7 +9822,7 @@
         <v>8258</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A128" s="45"/>
       <c r="B128" s="20" t="s">
         <v>10</v>
@@ -9854,7 +9885,7 @@
         <v>8354</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A129" s="45"/>
       <c r="B129" s="20" t="s">
         <v>11</v>
@@ -9917,7 +9948,7 @@
         <v>7419</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A130" s="45"/>
       <c r="B130" s="20" t="s">
         <v>12</v>
@@ -9980,7 +10011,7 @@
         <v>8515</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A131" s="45"/>
       <c r="B131" s="20" t="s">
         <v>13</v>
@@ -10043,7 +10074,7 @@
         <v>9858</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A132" s="45"/>
       <c r="B132" s="20" t="s">
         <v>14</v>
@@ -10106,7 +10137,7 @@
         <v>10911</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A133" s="45"/>
       <c r="B133" s="20" t="s">
         <v>15</v>
@@ -10169,7 +10200,7 @@
         <v>10141</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A134" s="45"/>
       <c r="B134" s="20" t="s">
         <v>16</v>
@@ -10232,7 +10263,7 @@
         <v>7846</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A135" s="45"/>
       <c r="B135" s="20" t="s">
         <v>17</v>
@@ -10295,7 +10326,7 @@
         <v>6232</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A136" s="45"/>
       <c r="B136" s="20" t="s">
         <v>18</v>
@@ -10358,7 +10389,7 @@
         <v>4689</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A137" s="45"/>
       <c r="B137" s="20" t="s">
         <v>19</v>
@@ -10421,8 +10452,8 @@
         <v>2745</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A138" s="46"/>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A138" s="56"/>
       <c r="B138" s="20" t="s">
         <v>20</v>
       </c>
@@ -10484,7 +10515,7 @@
         <v>3059</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A139" s="44" t="s">
         <v>27</v>
       </c>
@@ -10548,8 +10579,12 @@
       <c r="U139" s="26">
         <v>1063</v>
       </c>
-    </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V139" s="63">
+        <f>SUM(U139:U157)</f>
+        <v>116782</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A140" s="45"/>
       <c r="B140" s="20" t="s">
         <v>3</v>
@@ -10612,7 +10647,7 @@
         <v>4724</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A141" s="45"/>
       <c r="B141" s="20" t="s">
         <v>4</v>
@@ -10675,7 +10710,7 @@
         <v>6159</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A142" s="45"/>
       <c r="B142" s="20" t="s">
         <v>5</v>
@@ -10738,7 +10773,7 @@
         <v>6769</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A143" s="45"/>
       <c r="B143" s="20" t="s">
         <v>6</v>
@@ -10801,7 +10836,7 @@
         <v>7951</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A144" s="45"/>
       <c r="B144" s="20" t="s">
         <v>7</v>
@@ -11621,7 +11656,7 @@
       </c>
     </row>
     <row r="157" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="60"/>
+      <c r="A157" s="46"/>
       <c r="B157" s="27" t="s">
         <v>20</v>
       </c>
@@ -11684,10 +11719,10 @@
       </c>
     </row>
     <row r="158" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="61" t="s">
+      <c r="A158" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B158" s="62"/>
+      <c r="B158" s="48"/>
       <c r="C158" s="34">
         <v>1161917</v>
       </c>
@@ -11747,217 +11782,217 @@
       </c>
     </row>
     <row r="160" spans="1:21" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="58" t="s">
+      <c r="A160" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="B160" s="58"/>
-      <c r="C160" s="58"/>
-      <c r="D160" s="58"/>
-      <c r="E160" s="58"/>
-      <c r="F160" s="58"/>
-      <c r="G160" s="58"/>
-      <c r="H160" s="58"/>
-      <c r="I160" s="58"/>
-      <c r="J160" s="58"/>
-      <c r="K160" s="58"/>
-      <c r="L160" s="58"/>
-      <c r="M160" s="58"/>
-      <c r="N160" s="58"/>
-      <c r="O160" s="58"/>
-      <c r="P160" s="58"/>
-      <c r="Q160" s="58"/>
-      <c r="R160" s="58"/>
-      <c r="S160" s="58"/>
-      <c r="T160" s="58"/>
-      <c r="U160" s="58"/>
+      <c r="B160" s="49"/>
+      <c r="C160" s="49"/>
+      <c r="D160" s="49"/>
+      <c r="E160" s="49"/>
+      <c r="F160" s="49"/>
+      <c r="G160" s="49"/>
+      <c r="H160" s="49"/>
+      <c r="I160" s="49"/>
+      <c r="J160" s="49"/>
+      <c r="K160" s="49"/>
+      <c r="L160" s="49"/>
+      <c r="M160" s="49"/>
+      <c r="N160" s="49"/>
+      <c r="O160" s="49"/>
+      <c r="P160" s="49"/>
+      <c r="Q160" s="49"/>
+      <c r="R160" s="49"/>
+      <c r="S160" s="49"/>
+      <c r="T160" s="49"/>
+      <c r="U160" s="49"/>
     </row>
     <row r="161" spans="1:21" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A161" s="58"/>
-      <c r="B161" s="58"/>
-      <c r="C161" s="58"/>
-      <c r="D161" s="58"/>
-      <c r="E161" s="58"/>
-      <c r="F161" s="58"/>
-      <c r="G161" s="58"/>
-      <c r="H161" s="58"/>
-      <c r="I161" s="58"/>
-      <c r="J161" s="58"/>
-      <c r="K161" s="58"/>
-      <c r="L161" s="58"/>
-      <c r="M161" s="58"/>
-      <c r="N161" s="58"/>
-      <c r="O161" s="58"/>
-      <c r="P161" s="58"/>
-      <c r="Q161" s="58"/>
-      <c r="R161" s="58"/>
-      <c r="S161" s="58"/>
-      <c r="T161" s="58"/>
-      <c r="U161" s="58"/>
+      <c r="A161" s="49"/>
+      <c r="B161" s="49"/>
+      <c r="C161" s="49"/>
+      <c r="D161" s="49"/>
+      <c r="E161" s="49"/>
+      <c r="F161" s="49"/>
+      <c r="G161" s="49"/>
+      <c r="H161" s="49"/>
+      <c r="I161" s="49"/>
+      <c r="J161" s="49"/>
+      <c r="K161" s="49"/>
+      <c r="L161" s="49"/>
+      <c r="M161" s="49"/>
+      <c r="N161" s="49"/>
+      <c r="O161" s="49"/>
+      <c r="P161" s="49"/>
+      <c r="Q161" s="49"/>
+      <c r="R161" s="49"/>
+      <c r="S161" s="49"/>
+      <c r="T161" s="49"/>
+      <c r="U161" s="49"/>
     </row>
     <row r="162" spans="1:21" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A162" s="58"/>
-      <c r="B162" s="58"/>
-      <c r="C162" s="58"/>
-      <c r="D162" s="58"/>
-      <c r="E162" s="58"/>
-      <c r="F162" s="58"/>
-      <c r="G162" s="58"/>
-      <c r="H162" s="58"/>
-      <c r="I162" s="58"/>
-      <c r="J162" s="58"/>
-      <c r="K162" s="58"/>
-      <c r="L162" s="58"/>
-      <c r="M162" s="58"/>
-      <c r="N162" s="58"/>
-      <c r="O162" s="58"/>
-      <c r="P162" s="58"/>
-      <c r="Q162" s="58"/>
-      <c r="R162" s="58"/>
-      <c r="S162" s="58"/>
-      <c r="T162" s="58"/>
-      <c r="U162" s="58"/>
+      <c r="A162" s="49"/>
+      <c r="B162" s="49"/>
+      <c r="C162" s="49"/>
+      <c r="D162" s="49"/>
+      <c r="E162" s="49"/>
+      <c r="F162" s="49"/>
+      <c r="G162" s="49"/>
+      <c r="H162" s="49"/>
+      <c r="I162" s="49"/>
+      <c r="J162" s="49"/>
+      <c r="K162" s="49"/>
+      <c r="L162" s="49"/>
+      <c r="M162" s="49"/>
+      <c r="N162" s="49"/>
+      <c r="O162" s="49"/>
+      <c r="P162" s="49"/>
+      <c r="Q162" s="49"/>
+      <c r="R162" s="49"/>
+      <c r="S162" s="49"/>
+      <c r="T162" s="49"/>
+      <c r="U162" s="49"/>
     </row>
     <row r="163" spans="1:21" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A163" s="58"/>
-      <c r="B163" s="58"/>
-      <c r="C163" s="58"/>
-      <c r="D163" s="58"/>
-      <c r="E163" s="58"/>
-      <c r="F163" s="58"/>
-      <c r="G163" s="58"/>
-      <c r="H163" s="58"/>
-      <c r="I163" s="58"/>
-      <c r="J163" s="58"/>
-      <c r="K163" s="58"/>
-      <c r="L163" s="58"/>
-      <c r="M163" s="58"/>
-      <c r="N163" s="58"/>
-      <c r="O163" s="58"/>
-      <c r="P163" s="58"/>
-      <c r="Q163" s="58"/>
-      <c r="R163" s="58"/>
-      <c r="S163" s="58"/>
-      <c r="T163" s="58"/>
-      <c r="U163" s="58"/>
+      <c r="A163" s="49"/>
+      <c r="B163" s="49"/>
+      <c r="C163" s="49"/>
+      <c r="D163" s="49"/>
+      <c r="E163" s="49"/>
+      <c r="F163" s="49"/>
+      <c r="G163" s="49"/>
+      <c r="H163" s="49"/>
+      <c r="I163" s="49"/>
+      <c r="J163" s="49"/>
+      <c r="K163" s="49"/>
+      <c r="L163" s="49"/>
+      <c r="M163" s="49"/>
+      <c r="N163" s="49"/>
+      <c r="O163" s="49"/>
+      <c r="P163" s="49"/>
+      <c r="Q163" s="49"/>
+      <c r="R163" s="49"/>
+      <c r="S163" s="49"/>
+      <c r="T163" s="49"/>
+      <c r="U163" s="49"/>
     </row>
     <row r="164" spans="1:21" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="59" t="s">
+      <c r="A164" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="B164" s="59"/>
-      <c r="C164" s="59"/>
-      <c r="D164" s="59"/>
-      <c r="E164" s="59"/>
-      <c r="F164" s="59"/>
-      <c r="G164" s="59"/>
-      <c r="H164" s="59"/>
-      <c r="I164" s="59"/>
-      <c r="J164" s="59"/>
-      <c r="K164" s="59"/>
-      <c r="L164" s="59"/>
-      <c r="M164" s="59"/>
-      <c r="N164" s="59"/>
-      <c r="O164" s="59"/>
-      <c r="P164" s="59"/>
-      <c r="Q164" s="59"/>
-      <c r="R164" s="59"/>
-      <c r="S164" s="59"/>
-      <c r="T164" s="59"/>
-      <c r="U164" s="59"/>
+      <c r="B164" s="50"/>
+      <c r="C164" s="50"/>
+      <c r="D164" s="50"/>
+      <c r="E164" s="50"/>
+      <c r="F164" s="50"/>
+      <c r="G164" s="50"/>
+      <c r="H164" s="50"/>
+      <c r="I164" s="50"/>
+      <c r="J164" s="50"/>
+      <c r="K164" s="50"/>
+      <c r="L164" s="50"/>
+      <c r="M164" s="50"/>
+      <c r="N164" s="50"/>
+      <c r="O164" s="50"/>
+      <c r="P164" s="50"/>
+      <c r="Q164" s="50"/>
+      <c r="R164" s="50"/>
+      <c r="S164" s="50"/>
+      <c r="T164" s="50"/>
+      <c r="U164" s="50"/>
     </row>
     <row r="165" spans="1:21" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A165" s="59"/>
-      <c r="B165" s="59"/>
-      <c r="C165" s="59"/>
-      <c r="D165" s="59"/>
-      <c r="E165" s="59"/>
-      <c r="F165" s="59"/>
-      <c r="G165" s="59"/>
-      <c r="H165" s="59"/>
-      <c r="I165" s="59"/>
-      <c r="J165" s="59"/>
-      <c r="K165" s="59"/>
-      <c r="L165" s="59"/>
-      <c r="M165" s="59"/>
-      <c r="N165" s="59"/>
-      <c r="O165" s="59"/>
-      <c r="P165" s="59"/>
-      <c r="Q165" s="59"/>
-      <c r="R165" s="59"/>
-      <c r="S165" s="59"/>
-      <c r="T165" s="59"/>
-      <c r="U165" s="59"/>
+      <c r="A165" s="50"/>
+      <c r="B165" s="50"/>
+      <c r="C165" s="50"/>
+      <c r="D165" s="50"/>
+      <c r="E165" s="50"/>
+      <c r="F165" s="50"/>
+      <c r="G165" s="50"/>
+      <c r="H165" s="50"/>
+      <c r="I165" s="50"/>
+      <c r="J165" s="50"/>
+      <c r="K165" s="50"/>
+      <c r="L165" s="50"/>
+      <c r="M165" s="50"/>
+      <c r="N165" s="50"/>
+      <c r="O165" s="50"/>
+      <c r="P165" s="50"/>
+      <c r="Q165" s="50"/>
+      <c r="R165" s="50"/>
+      <c r="S165" s="50"/>
+      <c r="T165" s="50"/>
+      <c r="U165" s="50"/>
     </row>
     <row r="166" spans="1:21" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A166" s="59"/>
-      <c r="B166" s="59"/>
-      <c r="C166" s="59"/>
-      <c r="D166" s="59"/>
-      <c r="E166" s="59"/>
-      <c r="F166" s="59"/>
-      <c r="G166" s="59"/>
-      <c r="H166" s="59"/>
-      <c r="I166" s="59"/>
-      <c r="J166" s="59"/>
-      <c r="K166" s="59"/>
-      <c r="L166" s="59"/>
-      <c r="M166" s="59"/>
-      <c r="N166" s="59"/>
-      <c r="O166" s="59"/>
-      <c r="P166" s="59"/>
-      <c r="Q166" s="59"/>
-      <c r="R166" s="59"/>
-      <c r="S166" s="59"/>
-      <c r="T166" s="59"/>
-      <c r="U166" s="59"/>
+      <c r="A166" s="50"/>
+      <c r="B166" s="50"/>
+      <c r="C166" s="50"/>
+      <c r="D166" s="50"/>
+      <c r="E166" s="50"/>
+      <c r="F166" s="50"/>
+      <c r="G166" s="50"/>
+      <c r="H166" s="50"/>
+      <c r="I166" s="50"/>
+      <c r="J166" s="50"/>
+      <c r="K166" s="50"/>
+      <c r="L166" s="50"/>
+      <c r="M166" s="50"/>
+      <c r="N166" s="50"/>
+      <c r="O166" s="50"/>
+      <c r="P166" s="50"/>
+      <c r="Q166" s="50"/>
+      <c r="R166" s="50"/>
+      <c r="S166" s="50"/>
+      <c r="T166" s="50"/>
+      <c r="U166" s="50"/>
     </row>
     <row r="167" spans="1:21" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="59" t="s">
+      <c r="A167" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B167" s="59"/>
-      <c r="C167" s="59"/>
-      <c r="D167" s="59"/>
-      <c r="E167" s="59"/>
-      <c r="F167" s="59"/>
-      <c r="G167" s="59"/>
-      <c r="H167" s="59"/>
-      <c r="I167" s="59"/>
-      <c r="J167" s="59"/>
-      <c r="K167" s="59"/>
-      <c r="L167" s="59"/>
-      <c r="M167" s="59"/>
-      <c r="N167" s="59"/>
-      <c r="O167" s="59"/>
-      <c r="P167" s="59"/>
-      <c r="Q167" s="59"/>
-      <c r="R167" s="59"/>
-      <c r="S167" s="59"/>
-      <c r="T167" s="59"/>
-      <c r="U167" s="59"/>
+      <c r="B167" s="50"/>
+      <c r="C167" s="50"/>
+      <c r="D167" s="50"/>
+      <c r="E167" s="50"/>
+      <c r="F167" s="50"/>
+      <c r="G167" s="50"/>
+      <c r="H167" s="50"/>
+      <c r="I167" s="50"/>
+      <c r="J167" s="50"/>
+      <c r="K167" s="50"/>
+      <c r="L167" s="50"/>
+      <c r="M167" s="50"/>
+      <c r="N167" s="50"/>
+      <c r="O167" s="50"/>
+      <c r="P167" s="50"/>
+      <c r="Q167" s="50"/>
+      <c r="R167" s="50"/>
+      <c r="S167" s="50"/>
+      <c r="T167" s="50"/>
+      <c r="U167" s="50"/>
     </row>
     <row r="168" spans="1:21" s="40" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A168" s="59"/>
-      <c r="B168" s="59"/>
-      <c r="C168" s="59"/>
-      <c r="D168" s="59"/>
-      <c r="E168" s="59"/>
-      <c r="F168" s="59"/>
-      <c r="G168" s="59"/>
-      <c r="H168" s="59"/>
-      <c r="I168" s="59"/>
-      <c r="J168" s="59"/>
-      <c r="K168" s="59"/>
-      <c r="L168" s="59"/>
-      <c r="M168" s="59"/>
-      <c r="N168" s="59"/>
-      <c r="O168" s="59"/>
-      <c r="P168" s="59"/>
-      <c r="Q168" s="59"/>
-      <c r="R168" s="59"/>
-      <c r="S168" s="59"/>
-      <c r="T168" s="59"/>
-      <c r="U168" s="59"/>
+      <c r="A168" s="50"/>
+      <c r="B168" s="50"/>
+      <c r="C168" s="50"/>
+      <c r="D168" s="50"/>
+      <c r="E168" s="50"/>
+      <c r="F168" s="50"/>
+      <c r="G168" s="50"/>
+      <c r="H168" s="50"/>
+      <c r="I168" s="50"/>
+      <c r="J168" s="50"/>
+      <c r="K168" s="50"/>
+      <c r="L168" s="50"/>
+      <c r="M168" s="50"/>
+      <c r="N168" s="50"/>
+      <c r="O168" s="50"/>
+      <c r="P168" s="50"/>
+      <c r="Q168" s="50"/>
+      <c r="R168" s="50"/>
+      <c r="S168" s="50"/>
+      <c r="T168" s="50"/>
+      <c r="U168" s="50"/>
     </row>
     <row r="174" spans="1:21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="175" spans="1:21" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -11970,19 +12005,6 @@
     <row r="182" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A139:A157"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="A160:U163"/>
-    <mergeCell ref="A164:U166"/>
-    <mergeCell ref="A167:U168"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
     <mergeCell ref="A120:A138"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:K3"/>
@@ -11996,6 +12018,19 @@
     <mergeCell ref="A63:A81"/>
     <mergeCell ref="A82:A100"/>
     <mergeCell ref="A101:A119"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A139:A157"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="A160:U163"/>
+    <mergeCell ref="A164:U166"/>
+    <mergeCell ref="A167:U168"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
